--- a/Book.xlsx
+++ b/Book.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st52558\Documents\GitHub\bakalarka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunny\Documents\GitHub\bakalarka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10CA03A-DA94-4BEB-8690-2B325877DAD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D12D8A45-518B-43DA-951C-94E61AE525EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LeagueFormats" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="574">
   <si>
     <t>Name</t>
   </si>
@@ -1747,6 +1747,9 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Koeficient síly (1-10)</t>
   </si>
 </sst>
 </file>
@@ -3564,7 +3567,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4570,15 +4573,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5B0703-C7ED-4FEC-963E-614B999DCA51}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="85" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4589,6 +4594,9 @@
       <c r="B1" t="s">
         <v>124</v>
       </c>
+      <c r="D1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -4600,6 +4608,9 @@
       <c r="C2" t="s">
         <v>320</v>
       </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -4611,6 +4622,9 @@
       <c r="C3" t="s">
         <v>321</v>
       </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -4622,6 +4636,9 @@
       <c r="C4" t="s">
         <v>178</v>
       </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -4633,6 +4650,9 @@
       <c r="C5" t="s">
         <v>327</v>
       </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -4642,6 +4662,9 @@
       <c r="B6" t="s">
         <v>200</v>
       </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -4653,6 +4676,9 @@
       <c r="C7" t="s">
         <v>324</v>
       </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -4751,6 +4777,41 @@
       </c>
       <c r="C16" t="s">
         <v>323</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>182</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>397</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>356</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -4762,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22A810C-F154-4ADB-8375-C69D18DB30C1}">
   <dimension ref="A1:F251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B251"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
